--- a/Inventory CSVs/Current Data/TRUE BOM.xlsx
+++ b/Inventory CSVs/Current Data/TRUE BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\Current Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF39D36-8506-40E9-A02C-E47BAADD5F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D096A5-99B0-46D5-B11C-6ED54BD0C26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4F45E7A-80B9-489A-ADC9-B093947A0154}"/>
   </bookViews>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630A1A9-63A0-484D-B494-8E184F006C0E}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Inventory CSVs/Current Data/TRUE BOM.xlsx
+++ b/Inventory CSVs/Current Data/TRUE BOM.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Exlterra CAD 02\Documents\GitHub\pjbrich.github.io\Inventory CSVs\Current Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D096A5-99B0-46D5-B11C-6ED54BD0C26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C84FFFC-8B0E-45BC-B363-72ACF71E3E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4F45E7A-80B9-489A-ADC9-B093947A0154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1630A1A9-63A0-484D-B494-8E184F006C0E}">
   <dimension ref="A1:G200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
